--- a/speedup_spreadsheet.xlsx
+++ b/speedup_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benlu\Documents\Bristol\forth_year\computing\liquid_crystals_improved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C3211E4-AF64-42EB-BE2C-0F8959D6CCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71135A3E-4706-458F-AB91-461B06747A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD9718C5-91E4-43BA-B50A-CD0F946B0AC8}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
     <t>numba</t>
   </si>
   <si>
-    <t>90,.</t>
+    <t>speedup</t>
   </si>
 </sst>
 </file>
@@ -440,7 +439,1296 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unmodified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.7357200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.38752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.481072000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.514394000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.762912999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.718538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162.20109600000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210.279718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A04-436F-9F82-997591AFFEAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.37059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3829199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.06873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4220199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3704400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.9117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.405100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.183599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A04-436F-9F82-997591AFFEAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125476319"/>
+        <c:axId val="140255023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125476319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140255023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="140255023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Walltime / s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125476319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.080194279546681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.403725450496053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9327969550921722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.054259113762031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.006990432999936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.218401907368385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8872360424502137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9265336392303496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B02-4518-864A-F4428D43C629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="248804095"/>
+        <c:axId val="130334575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="248804095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130334575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130334575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Times Faster </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248804095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -996,6 +2284,1010 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1029,6 +3321,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196392</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479196</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91126</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA93BF1-3BDF-B5F5-C744-E3BD81501510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>345650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15712</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130404</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE950ACD-DD48-D330-AFB2-C0313ABD87A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1334,15 +3698,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BE21BF-B7F4-4AD2-A6ED-EAAD8CE48BF8}">
-  <dimension ref="C7:P15"/>
+  <dimension ref="C7:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -1352,19 +3716,26 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>25</v>
       </c>
       <c r="D8">
         <v>3.7357200000000002</v>
       </c>
-      <c r="P8" t="s">
-        <v>3</v>
+      <c r="E8">
+        <v>0.37059999999999998</v>
+      </c>
+      <c r="F8">
+        <f>D8/E8</f>
+        <v>10.080194279546681</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>C8+25</f>
         <v>50</v>
@@ -1372,59 +3743,114 @@
       <c r="D9">
         <v>14.38752</v>
       </c>
+      <c r="E9">
+        <v>1.3829199999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F15" si="0">D9/E9</f>
+        <v>10.403725450496053</v>
+      </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10">
-        <f t="shared" ref="C10:C15" si="0">C9+25</f>
+        <f t="shared" ref="C10:C15" si="1">C9+25</f>
         <v>75</v>
       </c>
       <c r="D10">
         <v>30.481072000000001</v>
       </c>
+      <c r="E10">
+        <v>3.06873</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>9.9327969550921722</v>
+      </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D11">
         <v>54.514394000000003</v>
       </c>
+      <c r="E11">
+        <v>5.4220199999999998</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>10.054259113762031</v>
+      </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="D12">
         <v>83.762912999999998</v>
       </c>
+      <c r="E12">
+        <v>8.3704400000000003</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>10.006990432999936</v>
+      </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D13">
         <v>121.718538</v>
       </c>
+      <c r="E13">
+        <v>11.9117</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>10.218401907368385</v>
+      </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="D14">
         <v>162.20109600000001</v>
       </c>
+      <c r="E14">
+        <v>16.405100000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>9.8872360424502137</v>
+      </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D15">
         <v>210.279718</v>
+      </c>
+      <c r="E15">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>9.9265336392303496</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <f>AVERAGE(F8:F15)</f>
+        <v>10.063767227618229</v>
       </c>
     </row>
   </sheetData>

--- a/speedup_spreadsheet.xlsx
+++ b/speedup_spreadsheet.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benlu\Documents\Bristol\forth_year\computing\liquid_crystals_improved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71135A3E-4706-458F-AB91-461B06747A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A228D15-6AC7-44E5-85FE-0AC63B523F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD9718C5-91E4-43BA-B50A-CD0F946B0AC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="3" xr2:uid="{BD9718C5-91E4-43BA-B50A-CD0F946B0AC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="unmodified_vs_numba" sheetId="1" r:id="rId1"/>
+    <sheet name="mpi_cores" sheetId="2" r:id="rId2"/>
+    <sheet name="numba_mpi" sheetId="3" r:id="rId3"/>
+    <sheet name="vector" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>size</t>
   </si>
@@ -48,6 +51,27 @@
   </si>
   <si>
     <t>speedup</t>
+  </si>
+  <si>
+    <t>n_cores</t>
+  </si>
+  <si>
+    <t>walltime</t>
+  </si>
+  <si>
+    <t>cpu_time</t>
+  </si>
+  <si>
+    <t>non_mpi_runtime</t>
+  </si>
+  <si>
+    <t>numba + mpi</t>
+  </si>
+  <si>
+    <t>grid size</t>
+  </si>
+  <si>
+    <t>vector</t>
   </si>
 </sst>
 </file>
@@ -181,7 +205,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$15</c:f>
+              <c:f>unmodified_vs_numba!$C$8:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -214,7 +238,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$15</c:f>
+              <c:f>unmodified_vs_numba!$D$8:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -519,7 +543,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$7</c:f>
+              <c:f>unmodified_vs_numba!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -590,7 +614,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$15</c:f>
+              <c:f>unmodified_vs_numba!$C$8:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -623,7 +647,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$15</c:f>
+              <c:f>unmodified_vs_numba!$D$8:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -666,7 +690,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$7</c:f>
+              <c:f>unmodified_vs_numba!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -737,7 +761,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$15</c:f>
+              <c:f>unmodified_vs_numba!$C$8:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -770,7 +794,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$15</c:f>
+              <c:f>unmodified_vs_numba!$E$8:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1210,7 +1234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$7</c:f>
+              <c:f>unmodified_vs_numba!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1281,7 +1305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$15</c:f>
+              <c:f>unmodified_vs_numba!$C$8:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1314,7 +1338,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$15</c:f>
+              <c:f>unmodified_vs_numba!$F$8:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1648,6 +1672,2950 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Walltime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs N Cores</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mpi_cores!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>walltime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mpi_cores!$C$9:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mpi_cores!$D$9:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>941.31572300000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>768.16049199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550.52621699999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>508.93656900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>497.54845699999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>476.18086699999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>454.481989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>465.57958100000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>468.13253600000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>425.81605999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>470.82562000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>421.35149999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>415.00584600000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425.11504500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>425.41177699999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>404.60047600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>472.33881200000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>407.57576899999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>398.32412299999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>404.359846</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>406.10267399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-904A-40AB-A9FB-9EB6378AB600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mpi_cores!$C$9:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mpi_cores!$F$9:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>909.76365099999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-904A-40AB-A9FB-9EB6378AB600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="139792143"/>
+        <c:axId val="140256943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="139792143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140256943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="140256943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Walltime / s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139792143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Core Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mpi_cores!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mpi_cores!$C$9:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mpi_cores!$E$9:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>941.31572300000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1536.320984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1651.5786509999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2035.7462760000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2487.7422849999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2857.0852019999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3181.3739230000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3724.6366480000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4213.1928239999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4258.1606000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5179.0818200000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5056.2179999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5395.0759980000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5951.6106300000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6381.1766549999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6473.6076160000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8029.7598040000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7336.3638419999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7568.1583369999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8087.1969200000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8528.1561540000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4AB-4173-BCC8-1ADB423B61C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="260402623"/>
+        <c:axId val="44198911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="260402623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44198911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44198911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Core Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> / S</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260402623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>numba_mpi!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>numba_mpi!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>numba_mpi!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.676733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.509595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.195299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.070720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.974463999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.206783999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.488303999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.78986399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.051321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.551784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8336-44F7-90E8-EDB198F363B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130444127"/>
+        <c:axId val="42864831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130444127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42864831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42864831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130444127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Numba vs MPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>numba_mpi!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>numba_mpi!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>numba_mpi!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.676733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.509595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.195299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.070720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.974463999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.206783999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.488303999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.78986399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.051321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.551784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5DE-4A43-97C6-AF154996AE76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>numba_mpi!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numba + mpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>numba_mpi!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>numba_mpi!$D$6:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.44363000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5912869999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3910279999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0466480000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2645970000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.3406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.498684999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.113295000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.750817999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.220059999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5DE-4A43-97C6-AF154996AE76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125480959"/>
+        <c:axId val="44814927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125480959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44814927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44814927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Walltime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125480959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vector!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>vector!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>vector!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.676733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.509595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.195299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.070720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.974463999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.206783999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.488303999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.78986399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.051321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.551784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0DF-479A-AB35-F5E6DB1F197A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vector!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>vector!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>vector!$D$6:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8791869999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0363360000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.541808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.569561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.890656999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.380929000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.357750999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.593023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.459305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164.708766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0DF-479A-AB35-F5E6DB1F197A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125460543"/>
+        <c:axId val="44798127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125460543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44798127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44798127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125460543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1768,6 +4736,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3284,6 +6452,2558 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3364,16 +9084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>345650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>97410</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15712</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130404</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>188536</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161827</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3393,6 +9113,201 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22866</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327666</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C8595A-07A2-2825-1578-7136C65794EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F8CF79-28A1-1683-FEB7-7FAD28694962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D593D343-007C-6C4C-7117-5869FB34BAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480066</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175266</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F296048A-4D7A-B244-47D1-3D58290D7213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304806</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB915253-9EB9-0DEC-E450-989236A260DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3700,8 +9615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BE21BF-B7F4-4AD2-A6ED-EAAD8CE48BF8}">
   <dimension ref="C7:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="B7" zoomScale="97" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3857,4 +9772,706 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E896F80B-3188-48AC-8C80-309A7F941015}">
+  <dimension ref="C8:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>941.31572300000005</v>
+      </c>
+      <c r="E9">
+        <f>D9*C9</f>
+        <v>941.31572300000005</v>
+      </c>
+      <c r="F9">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f>C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>768.16049199999998</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E29" si="0">D10*C10</f>
+        <v>1536.320984</v>
+      </c>
+      <c r="F10">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f t="shared" ref="C11:C28" si="1">C10+1</f>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>550.52621699999997</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1651.5786509999998</v>
+      </c>
+      <c r="F11">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>508.93656900000002</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2035.7462760000001</v>
+      </c>
+      <c r="F12">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>497.54845699999998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2487.7422849999998</v>
+      </c>
+      <c r="F13">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>476.18086699999998</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2857.0852019999998</v>
+      </c>
+      <c r="F14">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>454.481989</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3181.3739230000001</v>
+      </c>
+      <c r="F15">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>465.57958100000002</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3724.6366480000002</v>
+      </c>
+      <c r="F16">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>468.13253600000002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4213.1928239999997</v>
+      </c>
+      <c r="F17">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>425.81605999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4258.1606000000002</v>
+      </c>
+      <c r="F18">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>470.82562000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5179.0818200000003</v>
+      </c>
+      <c r="F19">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>421.35149999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5056.2179999999998</v>
+      </c>
+      <c r="F20">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>415.00584600000002</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>5395.0759980000003</v>
+      </c>
+      <c r="F21">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>425.11504500000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>5951.6106300000001</v>
+      </c>
+      <c r="F22">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>425.41177699999997</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6381.1766549999993</v>
+      </c>
+      <c r="F23">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>404.60047600000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>6473.6076160000002</v>
+      </c>
+      <c r="F24">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>472.33881200000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>8029.7598040000003</v>
+      </c>
+      <c r="F25">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>407.57576899999998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>7336.3638419999997</v>
+      </c>
+      <c r="F26">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f>C26+1</f>
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>398.32412299999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>7568.1583369999998</v>
+      </c>
+      <c r="F27">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>404.359846</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>8087.1969200000003</v>
+      </c>
+      <c r="F28">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>406.10267399999998</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>8528.1561540000002</v>
+      </c>
+      <c r="F29">
+        <v>909.76365099999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15489DC-1FAE-4545-9700-8B1C242D5619}">
+  <dimension ref="B5:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>1.676733</v>
+      </c>
+      <c r="D6">
+        <v>0.44363000000000002</v>
+      </c>
+      <c r="E6">
+        <f>C6/D6</f>
+        <v>3.7795753217771564</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>6.509595</v>
+      </c>
+      <c r="D7">
+        <v>1.5912869999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E15" si="0">C7/D7</f>
+        <v>4.0907736945001121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>225</v>
+      </c>
+      <c r="C8">
+        <v>14.195299</v>
+      </c>
+      <c r="D8">
+        <v>3.3910279999999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.1861344111579148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>26.070720000000001</v>
+      </c>
+      <c r="D9">
+        <v>6.0466480000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.311598756864961</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>B9+75</f>
+        <v>375</v>
+      </c>
+      <c r="C10">
+        <v>41.974463999999998</v>
+      </c>
+      <c r="D10">
+        <v>9.2645970000000002</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.530630312360052</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" ref="B11:B16" si="1">B10+75</f>
+        <v>450</v>
+      </c>
+      <c r="C11">
+        <v>58.206783999999999</v>
+      </c>
+      <c r="D11">
+        <v>13.3406</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.3631308936629534</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="C12">
+        <v>83.488303999999999</v>
+      </c>
+      <c r="D12">
+        <v>18.498684999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.5132021005817444</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="C13">
+        <v>117.78986399999999</v>
+      </c>
+      <c r="D13">
+        <v>25.113295000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.6903388822534033</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="C14">
+        <v>132.051321</v>
+      </c>
+      <c r="D14">
+        <v>31.750817999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.1589895731190296</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="C15">
+        <v>162.551784</v>
+      </c>
+      <c r="D15">
+        <v>40.220059999999997</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.0415599578916597</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f>AVERAGE(E6:E15)</f>
+        <v>4.2665933904168991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8786DA-1EB8-4013-8BC0-846AD14824B6}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>1.676733</v>
+      </c>
+      <c r="D6">
+        <v>1.8791869999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>6.509595</v>
+      </c>
+      <c r="D7">
+        <v>7.0363360000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>225</v>
+      </c>
+      <c r="C8">
+        <v>14.195299</v>
+      </c>
+      <c r="D8">
+        <v>14.541808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>26.070720000000001</v>
+      </c>
+      <c r="D9">
+        <v>25.569561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>B9+75</f>
+        <v>375</v>
+      </c>
+      <c r="C10">
+        <v>41.974463999999998</v>
+      </c>
+      <c r="D10">
+        <v>39.890656999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" ref="B11:B15" si="0">B10+75</f>
+        <v>450</v>
+      </c>
+      <c r="C11">
+        <v>58.206783999999999</v>
+      </c>
+      <c r="D11">
+        <v>57.380929000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="C12">
+        <v>83.488303999999999</v>
+      </c>
+      <c r="D12">
+        <v>79.357750999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C13">
+        <v>117.78986399999999</v>
+      </c>
+      <c r="D13">
+        <v>102.593023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="C14">
+        <v>132.051321</v>
+      </c>
+      <c r="D14">
+        <v>128.459305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="C15">
+        <v>162.551784</v>
+      </c>
+      <c r="D15">
+        <v>164.708766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/speedup_spreadsheet.xlsx
+++ b/speedup_spreadsheet.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benlu\Documents\Bristol\forth_year\computing\liquid_crystals_improved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A228D15-6AC7-44E5-85FE-0AC63B523F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF05E313-92D6-46FA-9127-A093D55AACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="3" xr2:uid="{BD9718C5-91E4-43BA-B50A-CD0F946B0AC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BD9718C5-91E4-43BA-B50A-CD0F946B0AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="unmodified_vs_numba" sheetId="1" r:id="rId1"/>
     <sheet name="mpi_cores" sheetId="2" r:id="rId2"/>
     <sheet name="numba_mpi" sheetId="3" r:id="rId3"/>
-    <sheet name="vector" sheetId="4" r:id="rId4"/>
+    <sheet name="Cython" sheetId="6" r:id="rId4"/>
+    <sheet name="vector" sheetId="4" r:id="rId5"/>
+    <sheet name="unmodified" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>size</t>
   </si>
@@ -72,6 +74,33 @@
   </si>
   <si>
     <t>vector</t>
+  </si>
+  <si>
+    <t>vectorised</t>
+  </si>
+  <si>
+    <t>all_energy_np</t>
+  </si>
+  <si>
+    <t>all_energy+one-energynp</t>
+  </si>
+  <si>
+    <t>numpy_vector</t>
+  </si>
+  <si>
+    <t>better_numpy</t>
+  </si>
+  <si>
+    <t>unmodded</t>
+  </si>
+  <si>
+    <t>cython</t>
+  </si>
+  <si>
+    <t>numba+mpi speedup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean speed up </t>
   </si>
 </sst>
 </file>
@@ -419,6 +448,2834 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Cython</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs Unmodified</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cython!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cython</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cython!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cython!$D$7:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.7102089999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.307780999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.192244000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.255770999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.59619799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>222.52282199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324.29564099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388.34831500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530.055612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>611.52713200000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8896-45F4-982A-9A347A629E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cython!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unmodified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cython!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cython!$E$7:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8451380000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.259749999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.161737000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.220169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.20186100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>326.48413199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436.87131099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>580.73023999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1006.941671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8896-45F4-982A-9A347A629E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="234949359"/>
+        <c:axId val="243679375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="234949359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243679375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="243679375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Walltime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234949359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Numba vs Vectorised</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vector!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>vector!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>vector!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.676733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.509595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.195299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.070720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.974463999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.206783999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.488303999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.78986399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.051321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.551784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0DF-479A-AB35-F5E6DB1F197A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vector!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vectorised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>vector!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>vector!$D$6:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8791869999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0363360000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.541808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.569561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.890656999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.380929000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.357750999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.593023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.459305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164.708766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0DF-479A-AB35-F5E6DB1F197A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125460543"/>
+        <c:axId val="44798127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125460543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48545013123359582"/>
+              <c:y val="0.77740667833187516"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44798127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44798127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Waltime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125460543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Numpy Vectorisation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unmodified!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unmodified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>unmodified!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>unmodified!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8451380000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.259749999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.161737000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.220169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.20186100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>326.48413199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436.87131099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>580.73023999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1006.941671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52F7-45DF-9F4A-0813D806D3ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unmodified!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numpy_vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>unmodified!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>unmodified!$D$7:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.164711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.946865000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.475945999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219.19175799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264.721474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>427.51320900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>529.79236200000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>687.88323500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1067.1753819999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1078.9388120000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52F7-45DF-9F4A-0813D806D3ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17054287"/>
+        <c:axId val="51074943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17054287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51074943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51074943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Walltime / s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17054287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Numpy Vectorisation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unmodified!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unmodified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>unmodified!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>unmodified!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8451380000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.259749999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.161737000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.220169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.20186100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>326.48413199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436.87131099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>580.73023999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1006.941671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-921E-457E-94B7-8B693AA1D351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unmodified!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numpy_vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>unmodified!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>unmodified!$D$7:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.164711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.946865000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.475945999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219.19175799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264.721474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>427.51320900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>529.79236200000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>687.88323500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1067.1753819999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1078.9388120000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-921E-457E-94B7-8B693AA1D351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unmodified!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>better_numpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>unmodified!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>unmodified!$E$7:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.4377570000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.598427000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.471941000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.45987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.467579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293.54272400000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>391.71935200000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512.22898299999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>667.96628899999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>830.06999800000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-921E-457E-94B7-8B693AA1D351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="248810127"/>
+        <c:axId val="130333615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="248810127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130333615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130333615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Walltime / s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248810127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4157,7 +7014,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>vector!$C$5</c:f>
+              <c:f>numba_mpi!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4192,7 +7049,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>vector!$B$6:$B$15</c:f>
+              <c:f>numba_mpi!$B$6:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4231,7 +7088,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>vector!$C$6:$C$15</c:f>
+              <c:f>numba_mpi!$C$6:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4271,7 +7128,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0DF-479A-AB35-F5E6DB1F197A}"/>
+              <c16:uniqueId val="{00000000-AC45-428E-A95B-2C41BE336F56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4280,11 +7137,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>vector!$D$5</c:f>
+              <c:f>numba_mpi!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vector</c:v>
+                  <c:v>numba + mpi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4315,7 +7172,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>vector!$B$6:$B$15</c:f>
+              <c:f>numba_mpi!$B$6:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4354,39 +7211,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>vector!$D$6:$D$15</c:f>
+              <c:f>numba_mpi!$D$6:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8791869999999999</c:v>
+                  <c:v>0.44363000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0363360000000004</c:v>
+                  <c:v>1.5912869999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.541808</c:v>
+                  <c:v>3.3910279999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.569561</c:v>
+                  <c:v>6.0466480000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.890656999999997</c:v>
+                  <c:v>9.2645970000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.380929000000002</c:v>
+                  <c:v>13.3406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.357750999999993</c:v>
+                  <c:v>18.498684999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.593023</c:v>
+                  <c:v>25.113295000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128.459305</c:v>
+                  <c:v>31.750817999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164.708766</c:v>
+                  <c:v>40.220059999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,7 +7251,130 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A0DF-479A-AB35-F5E6DB1F197A}"/>
+              <c16:uniqueId val="{00000001-AC45-428E-A95B-2C41BE336F56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>numba_mpi!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unmodded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>numba_mpi!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>numba_mpi!$F$6:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8451380000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.259749999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.161737000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.220169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.20186100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>326.48413199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436.87131099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>580.73023999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1006.941671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC45-428E-A95B-2C41BE336F56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4406,11 +7386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125460543"/>
-        <c:axId val="44798127"/>
+        <c:axId val="271927407"/>
+        <c:axId val="1583474271"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125460543"/>
+        <c:axId val="271927407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,12 +7447,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44798127"/>
+        <c:crossAx val="1583474271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44798127"/>
+        <c:axId val="1583474271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4529,7 +7509,907 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125460543"/>
+        <c:crossAx val="271927407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Final Walltimes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cython!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cython</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cython!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cython!$D$7:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.7102089999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.307780999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.192244000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.255770999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.59619799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>222.52282199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324.29564099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388.34831500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530.055612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>611.52713200000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-132C-4669-813E-7BC3D176A14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cython!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unmodified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cython!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cython!$E$7:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8451380000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.259749999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.161737000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.220169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.20186100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>326.48413199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436.87131099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>580.73023999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1006.941671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-132C-4669-813E-7BC3D176A14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cython!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cython!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cython!$F$7:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.676733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.509595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.195299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.070720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.974463999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.206783999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.488303999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.78986399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.051321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.551784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-132C-4669-813E-7BC3D176A14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cython!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>numba + mpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cython!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cython!$G$7:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.44363000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5912869999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3910279999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0466480000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2645970000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.3406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.498684999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.113295000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.750817999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.220059999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-132C-4669-813E-7BC3D176A14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="139781935"/>
+        <c:axId val="126802351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="139781935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126802351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126802351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Walltime / s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139781935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4617,6 +8497,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4936,6 +8976,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5452,7 +9532,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5954,7 +10034,1555 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6456,7 +12084,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6958,7 +12586,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7460,6 +13088,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8493,6 +14623,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9272,6 +15918,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298A7485-9AB3-7EC3-52FE-F27B22E0242B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9279,16 +15961,93 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304806</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B665474-C657-9A42-86FB-A34FF5AF556F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3288B2-34F1-54D8-C805-B910F8FF2F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518166</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>213366</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9308,6 +16067,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106686</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411486</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D770CF7B-2570-EB1F-4B45-835B5AFC3614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D727E0-A650-EF22-6B39-EC26FC380E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9615,8 +16451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BE21BF-B7F4-4AD2-A6ED-EAAD8CE48BF8}">
   <dimension ref="C7:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="97" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="B1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9778,7 +16614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E896F80B-3188-48AC-8C80-309A7F941015}">
   <dimension ref="C8:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -10141,15 +16977,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15489DC-1FAE-4545-9700-8B1C242D5619}">
-  <dimension ref="B5:E16"/>
+  <dimension ref="B5:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C15"/>
+      <selection activeCell="C5" sqref="C5:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -10159,8 +16995,14 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>75</v>
       </c>
@@ -10174,8 +17016,11 @@
         <f>C6/D6</f>
         <v>3.7795753217771564</v>
       </c>
+      <c r="F6">
+        <v>8.8451380000000004</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>150</v>
       </c>
@@ -10189,8 +17034,11 @@
         <f t="shared" ref="E7:E15" si="0">C7/D7</f>
         <v>4.0907736945001121</v>
       </c>
+      <c r="F7">
+        <v>35.259749999999997</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>225</v>
       </c>
@@ -10204,8 +17052,11 @@
         <f t="shared" si="0"/>
         <v>4.1861344111579148</v>
       </c>
+      <c r="F8">
+        <v>79.161737000000002</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>300</v>
       </c>
@@ -10219,8 +17070,11 @@
         <f t="shared" si="0"/>
         <v>4.311598756864961</v>
       </c>
+      <c r="F9">
+        <v>142.220169</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>B9+75</f>
         <v>375</v>
@@ -10235,8 +17089,11 @@
         <f t="shared" si="0"/>
         <v>4.530630312360052</v>
       </c>
+      <c r="F10">
+        <v>226.20186100000001</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" ref="B11:B16" si="1">B10+75</f>
         <v>450</v>
@@ -10251,8 +17108,11 @@
         <f t="shared" si="0"/>
         <v>4.3631308936629534</v>
       </c>
+      <c r="F11">
+        <v>326.48413199999999</v>
+      </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>525</v>
@@ -10267,8 +17127,11 @@
         <f t="shared" si="0"/>
         <v>4.5132021005817444</v>
       </c>
+      <c r="F12">
+        <v>436.87131099999999</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>600</v>
@@ -10283,8 +17146,11 @@
         <f t="shared" si="0"/>
         <v>4.6903388822534033</v>
       </c>
+      <c r="F13">
+        <v>580.73023999999998</v>
+      </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>675</v>
@@ -10299,8 +17165,11 @@
         <f t="shared" si="0"/>
         <v>4.1589895731190296</v>
       </c>
+      <c r="F14">
+        <v>728.32600000000002</v>
+      </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="1"/>
         <v>750</v>
@@ -10315,8 +17184,11 @@
         <f t="shared" si="0"/>
         <v>4.0415599578916597</v>
       </c>
+      <c r="F15">
+        <v>1006.941671</v>
+      </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E16">
         <f>AVERAGE(E6:E15)</f>
         <v>4.2665933904168991</v>
@@ -10329,21 +17201,361 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8786DA-1EB8-4013-8BC0-846AD14824B6}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBCB06F-1CF7-4E10-BD8C-551B7C3EE012}">
+  <dimension ref="B6:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>6.7102089999999999</v>
+      </c>
+      <c r="E7">
+        <v>8.8451380000000004</v>
+      </c>
+      <c r="F7">
+        <v>1.676733</v>
+      </c>
+      <c r="G7">
+        <v>0.44363000000000002</v>
+      </c>
+      <c r="H7">
+        <f>E7/G7</f>
+        <v>19.938097062867705</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f>75+C7</f>
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>24.307780999999999</v>
+      </c>
+      <c r="E8">
+        <v>35.259749999999997</v>
+      </c>
+      <c r="F8">
+        <v>6.509595</v>
+      </c>
+      <c r="G8">
+        <v>1.5912869999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H16" si="0">E8/G8</f>
+        <v>22.158007952053904</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f t="shared" ref="C9:C16" si="1">75+C8</f>
+        <v>225</v>
+      </c>
+      <c r="D9">
+        <v>54.192244000000002</v>
+      </c>
+      <c r="E9">
+        <v>79.161737000000002</v>
+      </c>
+      <c r="F9">
+        <v>14.195299</v>
+      </c>
+      <c r="G9">
+        <v>3.3910279999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>23.344465749029499</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>96.255770999999996</v>
+      </c>
+      <c r="E10">
+        <v>142.220169</v>
+      </c>
+      <c r="F10">
+        <v>26.070720000000001</v>
+      </c>
+      <c r="G10">
+        <v>6.0466480000000002</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>23.520497472318546</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="D11">
+        <v>153.59619799999999</v>
+      </c>
+      <c r="E11">
+        <v>226.20186100000001</v>
+      </c>
+      <c r="F11">
+        <v>41.974463999999998</v>
+      </c>
+      <c r="G11">
+        <v>9.2645970000000002</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>24.415725907991465</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D12">
+        <v>222.52282199999999</v>
+      </c>
+      <c r="E12">
+        <v>326.48413199999999</v>
+      </c>
+      <c r="F12">
+        <v>58.206783999999999</v>
+      </c>
+      <c r="G12">
+        <v>13.3406</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>24.472972130189046</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="D13">
+        <v>324.29564099999999</v>
+      </c>
+      <c r="E13">
+        <v>436.87131099999999</v>
+      </c>
+      <c r="F13">
+        <v>83.488303999999999</v>
+      </c>
+      <c r="G13">
+        <v>18.498684999999998</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>23.61634413473174</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D14">
+        <v>388.34831500000001</v>
+      </c>
+      <c r="E14">
+        <v>580.73023999999998</v>
+      </c>
+      <c r="F14">
+        <v>117.78986399999999</v>
+      </c>
+      <c r="G14">
+        <v>25.113295000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>23.124414378917621</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="D15">
+        <v>530.055612</v>
+      </c>
+      <c r="E15">
+        <v>728.32600000000002</v>
+      </c>
+      <c r="F15">
+        <v>132.051321</v>
+      </c>
+      <c r="G15">
+        <v>31.750817999999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>22.938810584344633</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="D16">
+        <v>611.52713200000005</v>
+      </c>
+      <c r="E16">
+        <v>1006.941671</v>
+      </c>
+      <c r="F16">
+        <v>162.551784</v>
+      </c>
+      <c r="G16">
+        <v>40.220059999999997</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>25.035807281242249</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f>AVERAGE(H7:H16)</f>
+        <v>23.25651426536864</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f>E7/D7</f>
+        <v>1.3181613270167889</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" ref="D21:D31" si="2">E8/D8</f>
+        <v>1.4505540427569261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>1.4607576870225192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1.4775235554447952</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>1.47270481916486</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1.4671939222485684</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f>E13/D13</f>
+        <v>1.3471390168947723</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>1.4953849870573017</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f>E15/D15</f>
+        <v>1.374055822655831</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>1.6466017913331112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(D20:D29)</f>
+        <v>1.4510076971595474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8786DA-1EB8-4013-8BC0-846AD14824B6}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -10351,10 +17563,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>75</v>
       </c>
@@ -10364,8 +17582,11 @@
       <c r="D6">
         <v>1.8791869999999999</v>
       </c>
+      <c r="E6">
+        <v>1.9697070000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>150</v>
       </c>
@@ -10375,8 +17596,11 @@
       <c r="D7">
         <v>7.0363360000000004</v>
       </c>
+      <c r="E7">
+        <v>6.7697240000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>225</v>
       </c>
@@ -10386,8 +17610,11 @@
       <c r="D8">
         <v>14.541808</v>
       </c>
+      <c r="E8">
+        <v>14.590142999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>300</v>
       </c>
@@ -10397,8 +17624,11 @@
       <c r="D9">
         <v>25.569561</v>
       </c>
+      <c r="E9">
+        <v>25.859134999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>B9+75</f>
         <v>375</v>
@@ -10409,8 +17639,11 @@
       <c r="D10">
         <v>39.890656999999997</v>
       </c>
+      <c r="E10">
+        <v>40.554752999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" ref="B11:B15" si="0">B10+75</f>
         <v>450</v>
@@ -10421,8 +17654,11 @@
       <c r="D11">
         <v>57.380929000000002</v>
       </c>
+      <c r="E11">
+        <v>57.699266000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>525</v>
@@ -10433,8 +17669,11 @@
       <c r="D12">
         <v>79.357750999999993</v>
       </c>
+      <c r="E12">
+        <v>91.403087999999997</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -10445,8 +17684,11 @@
       <c r="D13">
         <v>102.593023</v>
       </c>
+      <c r="E13">
+        <v>103.863518</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>675</v>
@@ -10457,8 +17699,11 @@
       <c r="D14">
         <v>128.459305</v>
       </c>
+      <c r="E14">
+        <v>139.17871299999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>750</v>
@@ -10468,6 +17713,239 @@
       </c>
       <c r="D15">
         <v>164.708766</v>
+      </c>
+      <c r="E15">
+        <v>176.13405299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D3F873-1B68-4185-B324-D2E65A29B390}">
+  <dimension ref="B6:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>8.8451380000000004</v>
+      </c>
+      <c r="D7">
+        <v>10.164711</v>
+      </c>
+      <c r="E7">
+        <v>7.4377570000000004</v>
+      </c>
+      <c r="F7">
+        <f>C7/E7</f>
+        <v>1.1892211590133961</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B7+75</f>
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>35.259749999999997</v>
+      </c>
+      <c r="D8">
+        <v>43.946865000000003</v>
+      </c>
+      <c r="E8">
+        <v>29.598427000000001</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F16" si="0">C8/E8</f>
+        <v>1.1912710766690404</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" ref="B9:B16" si="1">B8+75</f>
+        <v>225</v>
+      </c>
+      <c r="C9">
+        <v>79.161737000000002</v>
+      </c>
+      <c r="D9">
+        <v>90.475945999999993</v>
+      </c>
+      <c r="E9">
+        <v>73.471941000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.0774417542609906</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>142.220169</v>
+      </c>
+      <c r="D10">
+        <v>219.19175799999999</v>
+      </c>
+      <c r="E10">
+        <v>125.45987</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.1335909163623397</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="C11">
+        <v>226.20186100000001</v>
+      </c>
+      <c r="D11">
+        <v>264.721474</v>
+      </c>
+      <c r="E11">
+        <v>194.467579</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.1631854634237</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="C12">
+        <v>326.48413199999999</v>
+      </c>
+      <c r="D12">
+        <v>427.51320900000002</v>
+      </c>
+      <c r="E12">
+        <v>293.54272400000002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.1122201482330045</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="C13">
+        <v>436.87131099999999</v>
+      </c>
+      <c r="D13">
+        <v>529.79236200000003</v>
+      </c>
+      <c r="E13">
+        <v>391.71935200000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.1152660923425606</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="C14">
+        <v>580.73023999999998</v>
+      </c>
+      <c r="D14">
+        <v>687.88323500000001</v>
+      </c>
+      <c r="E14">
+        <v>512.22898299999997</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.1337317084222858</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="C15">
+        <v>728.32600000000002</v>
+      </c>
+      <c r="D15">
+        <v>1067.1753819999999</v>
+      </c>
+      <c r="E15">
+        <v>667.96628899999996</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.090363409043237</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="C16">
+        <v>1006.941671</v>
+      </c>
+      <c r="D16">
+        <v>1078.9388120000001</v>
+      </c>
+      <c r="E16">
+        <v>830.06999800000006</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.2130804310795003</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <f>AVERAGE(F7:F16)</f>
+        <v>1.1419372158850054</v>
       </c>
     </row>
   </sheetData>
